--- a/ExcelTool/MetaExporterCS/MetaDataXLS/Reward.xlsx
+++ b/ExcelTool/MetaExporterCS/MetaDataXLS/Reward.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BalloonBattle\trunc2\Tools\ExcelTool\MetaExporterCS\MetaDataXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\balloonbattle_2nd\Tools\ExcelTool\MetaExporterCS\MetaDataXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226914FA-C7E4-47E4-A3C7-A2662FBECC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E09C413-B9DA-4D61-8A38-3EE529C15445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="1515" windowWidth="23940" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Reward" sheetId="1" r:id="rId1"/>
+    <sheet name="Reward" sheetId="2" r:id="rId1"/>
+    <sheet name="RewardItem" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reward!$A$2:$A$152</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="15">
   <si>
     <t>Code</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -44,10 +48,6 @@
   </si>
   <si>
     <t>Resource_Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource_Dia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -65,7 +65,34 @@
     <t>Resource_Gold</t>
   </si>
   <si>
-    <t>Resource_CP</t>
+    <t>TextureName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>GoldGoods_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldGoods_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldGoods_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RankingRewardScene_Box</t>
+  </si>
+  <si>
+    <t>TextName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -446,11 +473,919 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA29F643-6DDD-4170-A810-DEDECA23118F}">
+  <dimension ref="A1:C106"/>
+  <sheetViews>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1001</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1002</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1003</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1004</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1005</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1006</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1007</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1008</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1009</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1010</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1011</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>9000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>9001</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>9002</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>9003</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>9101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>9102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>9103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>9104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>9105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>9106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>9107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>9108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>9201</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>9202</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>9203</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>9204</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>9205</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>9206</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>9301</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>9302</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1103</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1109</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1110</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2001</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>10001</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>10002</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>10003</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>11000</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>20001</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>20002</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>20003</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>20004</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>20005</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>20006</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>10004</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>7000</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>7001</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>7002</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>7003</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>7004</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>7005</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>7006</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>7100</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>7101</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>7102</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>7103</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>7104</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>7105</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>7106</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>7200</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>7201</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>7202</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>7203</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>7204</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>7205</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>7206</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>20007</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>20008</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>20009</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>20010</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>20011</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>20012</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>1200</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1201</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1202</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>1203</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>1204</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>1205</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>9004</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>9005</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>9006</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>9007</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>20013</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>20014</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>20015</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>20016</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>20017</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M112" sqref="M112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -468,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -487,10 +1422,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -512,23 +1447,23 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -539,18 +1474,18 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -561,593 +1496,593 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>12</v>
+        <v>1001</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>12</v>
+        <v>1002</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1000</v>
+      <c r="A17" s="2">
+        <v>1003</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1001</v>
+      <c r="A18" s="2">
+        <v>1004</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1002</v>
+      <c r="A19" s="2">
+        <v>1005</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
       <c r="C19">
-        <v>200</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
       </c>
       <c r="C23">
-        <v>400</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>1009</v>
+        <v>2000</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>100500</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>1010</v>
+        <v>9000</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>1011</v>
+        <v>9001</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>200</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>2000</v>
+      <c r="A29">
+        <v>9002</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>1005</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>9000</v>
+        <v>9003</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
       </c>
       <c r="C30">
-        <v>380</v>
+        <v>6780</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>9001</v>
+        <v>9101</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>1050</v>
+        <v>100200</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>9002</v>
+      <c r="A32" s="2">
+        <v>9102</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>2900</v>
+        <v>101800</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>9003</v>
+        <v>9103</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>6780</v>
+        <v>101600</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>9101</v>
+        <v>9104</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>1002</v>
+        <v>101500</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>9102</v>
+        <v>9105</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>1018</v>
+        <v>101200</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>9103</v>
+        <v>9106</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>1016</v>
+        <v>100500</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>9104</v>
+        <v>9107</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>1015</v>
+        <v>100300</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>9105</v>
+        <v>9108</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>1012</v>
+        <v>102500</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>9106</v>
+        <v>9201</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>1005</v>
+        <v>100400</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>9107</v>
+        <v>9202</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>1003</v>
+        <v>100600</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>9108</v>
+        <v>9203</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>1025</v>
+        <v>101000</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>9201</v>
+        <v>9204</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>1004</v>
+        <v>101400</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>9202</v>
+        <v>9205</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>1006</v>
+        <v>101700</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>9203</v>
+        <v>9206</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>1010</v>
+        <v>101900</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>9204</v>
+        <v>9301</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>1014</v>
+        <v>100700</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>9205</v>
+        <v>9302</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>1017</v>
+        <v>103700</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>9206</v>
+        <v>1103</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>1019</v>
+        <v>2</v>
+      </c>
+      <c r="C47" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>9301</v>
+        <v>1104</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>1007</v>
+        <v>2</v>
+      </c>
+      <c r="C48" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>9302</v>
+        <v>1105</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>1037</v>
+        <v>2</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
       </c>
       <c r="C50" s="2">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="2">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
       </c>
       <c r="C52" s="2">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>1108</v>
+        <v>2001</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
       </c>
       <c r="C53" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>1109</v>
+        <v>10001</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="2">
-        <v>55</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>1110</v>
+        <v>10002</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
       </c>
       <c r="C55" s="2">
-        <v>60</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>2001</v>
+        <v>10003</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" s="2">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>10001</v>
+        <v>11000</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>10002</v>
+      <c r="A58">
+        <v>20001</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="2">
-        <v>200</v>
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>104400</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>10003</v>
+      <c r="A59">
+        <v>20001</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="2">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>1000</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>11000</v>
+      <c r="A60">
+        <v>20002</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="2">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>100800</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
       <c r="C61">
-        <v>1044</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>20001</v>
+        <v>20003</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C62">
-        <v>500</v>
+        <v>101100</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>20001</v>
+        <v>20003</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63">
         <v>1000</v>
@@ -1155,65 +2090,65 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>20002</v>
+        <v>20004</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64">
-        <v>1008</v>
+        <v>102200</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>20002</v>
+        <v>20004</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>20002</v>
+        <v>20005</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66">
-        <v>1000</v>
+        <v>102800</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>20003</v>
+        <v>20005</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67">
-        <v>1011</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>20003</v>
+        <v>20006</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68">
-        <v>500</v>
+        <v>104100</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>20003</v>
+        <v>20006</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69">
         <v>1000</v>
@@ -1221,21 +2156,21 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>20004</v>
+        <v>10004</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
       <c r="C70">
-        <v>1022</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>20004</v>
+        <v>7000</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C71">
         <v>500</v>
@@ -1243,183 +2178,183 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>20004</v>
+        <v>7001</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72">
-        <v>1000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>20005</v>
+        <v>7002</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73">
-        <v>1028</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>20005</v>
+        <v>7003</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>500</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>20005</v>
+        <v>7004</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C75">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>20006</v>
+        <v>7005</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C76">
-        <v>1041</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>20006</v>
+        <v>7006</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C77">
-        <v>500</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>20006</v>
+        <v>7100</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>10004</v>
+        <v>7101</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C79">
-        <v>670</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>7000</v>
+        <v>7102</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80">
-        <v>500</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>7000</v>
+        <v>7103</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C81">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>7001</v>
+        <v>7104</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>400</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>7001</v>
+        <v>7105</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C83">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>7002</v>
+        <v>7106</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>300</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>7002</v>
+        <v>7200</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>7003</v>
+        <v>7201</v>
       </c>
       <c r="B86" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>240</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>7004</v>
+        <v>7202</v>
       </c>
       <c r="B87" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C87">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>7005</v>
+        <v>7203</v>
       </c>
       <c r="B88" t="s">
         <v>2</v>
@@ -1430,32 +2365,32 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>7006</v>
+        <v>7204</v>
       </c>
       <c r="B89" t="s">
         <v>2</v>
       </c>
       <c r="C89">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>7100</v>
+        <v>7205</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>7100</v>
+        <v>7206</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C91">
         <v>10</v>
@@ -1463,679 +2398,360 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>7101</v>
+        <v>20007</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92">
-        <v>210</v>
+        <v>105400</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>7101</v>
+        <v>20007</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C93">
-        <v>5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>7102</v>
+        <v>20008</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>170</v>
+        <v>105500</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>7102</v>
+        <v>20008</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>7103</v>
+        <v>20009</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C96">
-        <v>130</v>
+        <v>105600</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>7104</v>
+        <v>20009</v>
       </c>
       <c r="B97" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C97">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>7105</v>
+        <v>20010</v>
       </c>
       <c r="B98" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C98">
-        <v>50</v>
+        <v>105700</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>7106</v>
+        <v>20010</v>
       </c>
       <c r="B99" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C99">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>7200</v>
+        <v>20011</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C100">
-        <v>250</v>
+        <v>105800</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>7200</v>
+        <v>20011</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C101">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>7201</v>
+        <v>20012</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102">
-        <v>210</v>
+        <v>105900</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>7201</v>
+        <v>20012</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C103">
-        <v>5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>7202</v>
+        <v>1200</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C104">
-        <v>170</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>7202</v>
+        <v>1201</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>7203</v>
+        <v>1202</v>
       </c>
       <c r="B106" t="s">
         <v>2</v>
       </c>
       <c r="C106">
-        <v>130</v>
+        <v>400</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>7204</v>
+        <v>1203</v>
       </c>
       <c r="B107" t="s">
         <v>2</v>
       </c>
       <c r="C107">
-        <v>90</v>
+        <v>500</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>7205</v>
+        <v>1204</v>
       </c>
       <c r="B108" t="s">
         <v>2</v>
       </c>
       <c r="C108">
-        <v>50</v>
+        <v>600</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>7206</v>
+        <v>1205</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
       </c>
       <c r="C109">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>20007</v>
+        <v>9004</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C110">
-        <v>1054</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>20007</v>
+        <v>9005</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C111">
-        <v>500</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>20007</v>
+        <v>9006</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C112">
-        <v>1000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>20008</v>
+        <v>9007</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C113">
-        <v>1055</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>20008</v>
-      </c>
-      <c r="B114" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114">
-        <v>500</v>
+      <c r="A114" s="3">
+        <v>20013</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="3">
+        <v>106000</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>20008</v>
-      </c>
-      <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115">
+      <c r="A115" s="3">
+        <v>20013</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>20009</v>
-      </c>
-      <c r="B116" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116">
-        <v>1056</v>
+      <c r="A116" s="3">
+        <v>20014</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="3">
+        <v>106100</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>20009</v>
-      </c>
-      <c r="B117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117">
-        <v>500</v>
+      <c r="A117" s="3">
+        <v>20014</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="3">
+        <v>1000</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>20009</v>
-      </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118">
+      <c r="A118" s="3">
+        <v>20015</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="3">
+        <v>106200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>20015</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>20010</v>
-      </c>
-      <c r="B119" t="s">
-        <v>6</v>
-      </c>
-      <c r="C119">
-        <v>1057</v>
-      </c>
-    </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>20010</v>
-      </c>
-      <c r="B120" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120">
-        <v>500</v>
+      <c r="A120" s="3">
+        <v>20016</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="3">
+        <v>106300</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>20010</v>
-      </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121">
+      <c r="A121" s="3">
+        <v>20016</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>20011</v>
-      </c>
-      <c r="B122" t="s">
-        <v>6</v>
-      </c>
-      <c r="C122">
-        <v>1058</v>
+      <c r="A122" s="3">
+        <v>20017</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="3">
+        <v>106400</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>20011</v>
-      </c>
-      <c r="B123" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>20011</v>
-      </c>
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>20012</v>
-      </c>
-      <c r="B125" t="s">
-        <v>6</v>
-      </c>
-      <c r="C125">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>20012</v>
-      </c>
-      <c r="B126" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>20012</v>
-      </c>
-      <c r="B127" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>1200</v>
-      </c>
-      <c r="B128" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>1201</v>
-      </c>
-      <c r="B129" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>1202</v>
-      </c>
-      <c r="B130" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>1203</v>
-      </c>
-      <c r="B131" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>1204</v>
-      </c>
-      <c r="B132" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>1205</v>
-      </c>
-      <c r="B133" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>9004</v>
-      </c>
-      <c r="B134" t="s">
-        <v>2</v>
-      </c>
-      <c r="C134">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>9005</v>
-      </c>
-      <c r="B135" t="s">
-        <v>2</v>
-      </c>
-      <c r="C135">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>9006</v>
-      </c>
-      <c r="B136" t="s">
-        <v>2</v>
-      </c>
-      <c r="C136">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>9007</v>
-      </c>
-      <c r="B137" t="s">
-        <v>2</v>
-      </c>
-      <c r="C137">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
-        <v>20013</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C138" s="3">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
-        <v>20013</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
-        <v>20013</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="3">
-        <v>20014</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C141" s="3">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
-        <v>20014</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
-        <v>20014</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C143" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
-        <v>20015</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C144" s="3">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
-        <v>20015</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
-        <v>20015</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="3">
-        <v>20016</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C147" s="3">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
-        <v>20016</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
-        <v>20016</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
+      <c r="A123" s="3">
         <v>20017</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C150" s="3">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
-        <v>20017</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
-        <v>20017</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152" s="3">
+      <c r="B123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="3">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A60">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A2:A57">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ExcelTool/MetaExporterCS/MetaDataXLS/Reward.xlsx
+++ b/ExcelTool/MetaExporterCS/MetaDataXLS/Reward.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\balloonbattle_2nd\Tools\ExcelTool\MetaExporterCS\MetaDataXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E09C413-B9DA-4D61-8A38-3EE529C15445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5FDCBA-DCC0-4B3E-A00C-3495C3A0918C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="1515" windowWidth="23940" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="1020" windowWidth="24930" windowHeight="15270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reward" sheetId="2" r:id="rId1"/>
     <sheet name="RewardItem" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reward!$A$2:$A$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reward!$A$2:$A$161</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="20">
   <si>
     <t>Code</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,29 +69,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>GoldGoods_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldGoods_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldGoods_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RankingRewardScene_Box</t>
+    <t>TextName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TextName</t>
+    <t>GoldGoods_1</t>
+  </si>
+  <si>
+    <t>GoldGoods_2</t>
+  </si>
+  <si>
+    <t>GoldGoods_3</t>
+  </si>
+  <si>
+    <t>쿠폰 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일 퀘스트 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭크 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일퀘스트 완료 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(구) 일일 퀘스트 보상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +164,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,13 +201,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -474,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA29F643-6DDD-4170-A810-DEDECA23118F}">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -495,883 +524,982 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1000</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1001</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1002</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1003</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1004</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1005</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>1006</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1007</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1008</v>
-      </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2000</v>
+        <v>1003</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>9000</v>
+        <v>1004</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>9001</v>
+        <v>1005</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>9002</v>
+        <v>1006</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>9003</v>
+        <v>1007</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>9101</v>
+        <v>1008</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>9102</v>
+        <v>1009</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>9103</v>
+        <v>1010</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>9104</v>
+        <v>1011</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>9105</v>
+        <v>2000</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>9106</v>
+        <v>9000</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>9107</v>
+        <v>9001</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>9108</v>
+        <v>9002</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>9201</v>
+        <v>9003</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>9202</v>
+        <v>9101</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>9203</v>
+        <v>9102</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>9204</v>
+        <v>9103</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>9205</v>
+        <v>9104</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>9206</v>
+        <v>9105</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>9301</v>
+        <v>9106</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>9302</v>
+        <v>9107</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>1103</v>
+        <v>9108</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>1104</v>
+        <v>9201</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>1105</v>
+        <v>9202</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>1108</v>
+        <v>9203</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>1109</v>
+        <v>9204</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1110</v>
+        <v>9205</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>2001</v>
+        <v>9206</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>10001</v>
+        <v>9301</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>10002</v>
+        <v>9302</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>10003</v>
+        <v>1103</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>11000</v>
+        <v>1104</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>20001</v>
+        <v>1105</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>20002</v>
+        <v>1108</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>20003</v>
+        <v>1109</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>20004</v>
+        <v>1110</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>20005</v>
+        <v>2001</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>20006</v>
+        <v>10001</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>7000</v>
+        <v>10003</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>7001</v>
+        <v>11000</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>7002</v>
+        <v>20001</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>7003</v>
+        <v>20002</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>7004</v>
+        <v>20003</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>7005</v>
+        <v>20004</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>7006</v>
+        <v>20005</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>7100</v>
+        <v>20006</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>7101</v>
+        <v>10004</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>7102</v>
+        <v>7000</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>7103</v>
+        <v>7001</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>7104</v>
+        <v>7002</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>7105</v>
+        <v>7003</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>7106</v>
+        <v>7004</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>7200</v>
+        <v>7005</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>7201</v>
+        <v>7006</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>7202</v>
+        <v>7100</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>7203</v>
+        <v>7101</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>7204</v>
+        <v>7102</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>7205</v>
+        <v>7103</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>7206</v>
+        <v>7104</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>20007</v>
+        <v>7105</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>20008</v>
+        <v>7106</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>20009</v>
+        <v>7200</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>20010</v>
+        <v>7201</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>20011</v>
+        <v>7202</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>20012</v>
+        <v>7203</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>1200</v>
+        <v>7204</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>1201</v>
+        <v>7205</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>1202</v>
+        <v>7206</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>1203</v>
+        <v>20007</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>1204</v>
+        <v>20008</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>1205</v>
+        <v>20009</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>9004</v>
+        <v>20010</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>9005</v>
+        <v>20011</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>9006</v>
+        <v>20012</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>9007</v>
+        <v>1200</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>20013</v>
+        <v>1201</v>
       </c>
       <c r="C102" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>20014</v>
+        <v>1202</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>20015</v>
+        <v>1203</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>20016</v>
+        <v>1204</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
+        <v>1205</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>9004</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>9005</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>9006</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>9007</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>20013</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>20014</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>20015</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>20016</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
         <v>20017</v>
       </c>
-      <c r="C106" t="s">
-        <v>12</v>
+      <c r="C115" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1382,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M112" sqref="M112"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1395,7 +1523,7 @@
     <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1406,1352 +1534,1694 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>220</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>85</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>120</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>420</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>140</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>170</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>820</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>195</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>225</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>1600</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>220</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>430</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>830</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>1460</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>2700</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1001</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>250</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34">
         <v>1000</v>
       </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1001</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1002</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>1003</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>1004</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>1005</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>1006</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>1007</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>1008</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>1009</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>1010</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>1011</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>2000</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>100500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>9000</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>9001</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>9002</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>9003</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>6780</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>9101</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>100200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>9102</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>101800</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>9103</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>101600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>9104</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>101500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>9105</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>101200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>9106</v>
+        <v>9000</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>100500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>9107</v>
+        <v>9001</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>100300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>9108</v>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>9002</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>102500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>9201</v>
+        <v>9003</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>100400</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>9202</v>
+        <v>6780</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>9101</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>100600</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>9203</v>
+        <v>101200</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>9102</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>101000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>9204</v>
+        <v>101201</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>9103</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>101400</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>9205</v>
+        <v>101202</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>9104</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>101700</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>9206</v>
+        <v>101203</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>9105</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>101900</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>101204</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>9301</v>
+        <v>9106</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>100700</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>9302</v>
+        <v>9107</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
       </c>
       <c r="C46">
+        <v>100300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>9108</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>102500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>9201</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>100400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>9202</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>100600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>9203</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>9204</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>101400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>9205</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>101700</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>9206</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>101900</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>9301</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>100700</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>9302</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55">
         <v>103700</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>1103</v>
       </c>
-      <c r="B47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="2">
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>1104</v>
       </c>
-      <c r="B48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="2">
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>1105</v>
       </c>
-      <c r="B49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="2">
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>1108</v>
       </c>
-      <c r="B50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="2">
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>1109</v>
       </c>
-      <c r="B51" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="2">
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>1110</v>
       </c>
-      <c r="B52" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="2">
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
         <v>2001</v>
       </c>
-      <c r="B53" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1700</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>10001</v>
       </c>
-      <c r="B54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="2">
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="2">
         <v>4000</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
         <v>10002</v>
       </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="2">
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
         <v>10003</v>
       </c>
-      <c r="B56" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="2">
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
         <v>11000</v>
       </c>
-      <c r="B57" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="2">
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="2">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>20001</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B67" t="s">
         <v>5</v>
       </c>
-      <c r="C58">
+      <c r="C67">
         <v>104400</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>20001</v>
       </c>
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59">
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>20002</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B69" t="s">
         <v>5</v>
       </c>
-      <c r="C60">
+      <c r="C69">
         <v>100800</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>20002</v>
       </c>
-      <c r="B61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61">
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>20003</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B71" t="s">
         <v>5</v>
       </c>
-      <c r="C62">
+      <c r="C71">
         <v>101100</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>20003</v>
       </c>
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63">
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
         <v>1000</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>20004</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B73" t="s">
         <v>5</v>
       </c>
-      <c r="C64">
+      <c r="C73">
         <v>102200</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>20004</v>
       </c>
-      <c r="B65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65">
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74">
         <v>1000</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>20005</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B75" t="s">
         <v>5</v>
       </c>
-      <c r="C66">
+      <c r="C75">
         <v>102800</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>20005</v>
       </c>
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67">
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
         <v>1000</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>20006</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B77" t="s">
         <v>5</v>
       </c>
-      <c r="C68">
+      <c r="C77">
         <v>104100</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>20006</v>
       </c>
-      <c r="B69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69">
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
         <v>1000</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>10004</v>
       </c>
-      <c r="B70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70">
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
         <v>5000</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>7000</v>
       </c>
-      <c r="B71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71">
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
         <v>500</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>7001</v>
       </c>
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72">
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81">
         <v>400</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>7002</v>
       </c>
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73">
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
         <v>300</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>7003</v>
       </c>
-      <c r="B74" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74">
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83">
         <v>240</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>7004</v>
       </c>
-      <c r="B75" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75">
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84">
         <v>180</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>7005</v>
       </c>
-      <c r="B76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76">
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85">
         <v>130</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>7006</v>
       </c>
-      <c r="B77" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77">
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86">
         <v>80</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>7100</v>
       </c>
-      <c r="B78" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78">
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87">
         <v>250</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>7101</v>
       </c>
-      <c r="B79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79">
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
         <v>210</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>7102</v>
       </c>
-      <c r="B80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80">
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89">
         <v>170</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>7103</v>
       </c>
-      <c r="B81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C81">
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90">
         <v>130</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>7104</v>
       </c>
-      <c r="B82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82">
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91">
         <v>90</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>7105</v>
       </c>
-      <c r="B83" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83">
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92">
         <v>50</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>7106</v>
       </c>
-      <c r="B84" t="s">
-        <v>2</v>
-      </c>
-      <c r="C84">
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>7200</v>
       </c>
-      <c r="B85" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85">
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94">
         <v>250</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
         <v>7201</v>
       </c>
-      <c r="B86" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86">
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95">
         <v>210</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>7202</v>
       </c>
-      <c r="B87" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87">
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96">
         <v>170</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
         <v>7203</v>
       </c>
-      <c r="B88" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88">
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97">
         <v>130</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
         <v>7204</v>
       </c>
-      <c r="B89" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89">
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98">
         <v>90</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
         <v>7205</v>
       </c>
-      <c r="B90" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90">
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99">
         <v>50</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>7206</v>
       </c>
-      <c r="B91" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91">
+      <c r="B100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>20007</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B101" t="s">
         <v>5</v>
       </c>
-      <c r="C92">
+      <c r="C101">
         <v>105400</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
         <v>20007</v>
       </c>
-      <c r="B93" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93">
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102">
         <v>1000</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
         <v>20008</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B103" t="s">
         <v>5</v>
       </c>
-      <c r="C94">
+      <c r="C103">
         <v>105500</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
         <v>20008</v>
       </c>
-      <c r="B95" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95">
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104">
         <v>1000</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
         <v>20009</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B105" t="s">
         <v>5</v>
       </c>
-      <c r="C96">
+      <c r="C105">
         <v>105600</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
         <v>20009</v>
       </c>
-      <c r="B97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97">
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106">
         <v>1000</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
         <v>20010</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B107" t="s">
         <v>5</v>
       </c>
-      <c r="C98">
+      <c r="C107">
         <v>105700</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
         <v>20010</v>
       </c>
-      <c r="B99" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99">
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108">
         <v>1000</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
         <v>20011</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B109" t="s">
         <v>5</v>
       </c>
-      <c r="C100">
+      <c r="C109">
         <v>105800</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>20011</v>
       </c>
-      <c r="B101" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101">
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
         <v>20012</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B111" t="s">
         <v>5</v>
       </c>
-      <c r="C102">
+      <c r="C111">
         <v>105900</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
         <v>20012</v>
       </c>
-      <c r="B103" t="s">
-        <v>6</v>
-      </c>
-      <c r="C103">
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112">
         <v>1000</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
         <v>1200</v>
       </c>
-      <c r="B104" t="s">
-        <v>2</v>
-      </c>
-      <c r="C104">
+      <c r="B113" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113">
         <v>200</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105">
+      <c r="E113" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
         <v>1201</v>
       </c>
-      <c r="B105" t="s">
-        <v>2</v>
-      </c>
-      <c r="C105">
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114">
         <v>300</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106">
+      <c r="E114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
         <v>1202</v>
       </c>
-      <c r="B106" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106">
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115">
         <v>400</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107">
+      <c r="E115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
         <v>1203</v>
       </c>
-      <c r="B107" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107">
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116">
         <v>500</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108">
+      <c r="E116" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
         <v>1204</v>
       </c>
-      <c r="B108" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108">
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117">
         <v>600</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109">
+      <c r="E117" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
         <v>1205</v>
       </c>
-      <c r="B109" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109">
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118">
         <v>1000</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110">
+      <c r="E118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
         <v>9004</v>
       </c>
-      <c r="B110" t="s">
-        <v>2</v>
-      </c>
-      <c r="C110">
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119">
         <v>1400</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111">
+      <c r="E119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
         <v>9005</v>
       </c>
-      <c r="B111" t="s">
-        <v>2</v>
-      </c>
-      <c r="C111">
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120">
         <v>4600</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112">
+      <c r="E120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
         <v>9006</v>
       </c>
-      <c r="B112" t="s">
-        <v>2</v>
-      </c>
-      <c r="C112">
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121">
         <v>14000</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113">
+      <c r="E121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
         <v>9007</v>
       </c>
-      <c r="B113" t="s">
-        <v>2</v>
-      </c>
-      <c r="C113">
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122">
         <v>32000</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
+      <c r="E122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
         <v>20013</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C123" s="3">
         <v>106000</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
+      <c r="E123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
         <v>20013</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" s="3">
+      <c r="B124" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
+      <c r="E124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
         <v>20014</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B125" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C125" s="3">
         <v>106100</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
+      <c r="E125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
         <v>20014</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" s="3">
+      <c r="B126" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
+      <c r="E126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
         <v>20015</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C127" s="3">
         <v>106200</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
+      <c r="E127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
         <v>20015</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C119" s="3">
+      <c r="B128" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
+      <c r="E128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
         <v>20016</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B129" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C129" s="3">
         <v>106300</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
+      <c r="E129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
         <v>20016</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C121" s="3">
+      <c r="B130" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
+      <c r="E130" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
         <v>20017</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B131" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C131" s="3">
         <v>106400</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
+      <c r="E131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
         <v>20017</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C123" s="3">
+      <c r="B132" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" s="3">
         <v>1000</v>
+      </c>
+      <c r="E132" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A57">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="A2:A66">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
